--- a/data/Categorias.xlsx
+++ b/data/Categorias.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Front-end\REACTAPP\fanaticos\src\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Back-end\FANATICOS\catalog-node\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5904BF43-5A9C-4E4A-AC91-032944B60C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27083D43-3248-4E7D-A156-C4170E9E4E2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -41,9 +33,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Foto</t>
-  </si>
-  <si>
     <t>Mostrar</t>
   </si>
   <si>
@@ -74,22 +63,43 @@
     <t>Niño</t>
   </si>
   <si>
-    <t>assets/img/bg1.jpg</t>
-  </si>
-  <si>
-    <t>assets/img/bg3.jpg</t>
-  </si>
-  <si>
-    <t>assets/img/bg4.jpg</t>
-  </si>
-  <si>
     <t>Shorts</t>
+  </si>
+  <si>
+    <t>FotoArriba</t>
+  </si>
+  <si>
+    <t>FotoAbajo</t>
+  </si>
+  <si>
+    <t>Camisetas.jpg</t>
+  </si>
+  <si>
+    <t>Pantalones.jpg</t>
+  </si>
+  <si>
+    <t>Shorts.jpg</t>
+  </si>
+  <si>
+    <t>Ofertas.png</t>
+  </si>
+  <si>
+    <t>Camiseta.jpg</t>
+  </si>
+  <si>
+    <t>Pantalon.jpg</t>
+  </si>
+  <si>
+    <t>Oferta.png</t>
+  </si>
+  <si>
+    <t>Short.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,19 +445,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6393613B-A0B1-45CF-801B-B1CB92D8658D}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,136 +466,154 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
+      <c r="G1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Categorias.xlsx
+++ b/data/Categorias.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -36,62 +36,155 @@
     <t>Orden</t>
   </si>
   <si>
-    <t>Tipo</t>
+    <t>IdTipo</t>
   </si>
   <si>
     <t>Camisetas</t>
   </si>
   <si>
-    <t>Camisetas.jpg</t>
+    <t>CamisetasA.jpg</t>
   </si>
   <si>
     <t>Camiseta.jpg</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CamisetasN.jpg</t>
+  </si>
+  <si>
+    <t>Pantalon.jpg</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
-    <t>Adulto</t>
+    <t>Ofertas</t>
+  </si>
+  <si>
+    <t>Ofertas.jpg</t>
+  </si>
+  <si>
+    <t>Oferta.png</t>
   </si>
   <si>
     <t>Pantalones</t>
   </si>
   <si>
-    <t>Pantalones.jpg</t>
-  </si>
-  <si>
-    <t>Pantalon.jpg</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Niño</t>
-  </si>
-  <si>
-    <t>Ofertas</t>
-  </si>
-  <si>
-    <t>Ofertas.png</t>
-  </si>
-  <si>
-    <t>Oferta.png</t>
+    <t>PantalonesA.jpg</t>
+  </si>
+  <si>
+    <t>PantalonesN.jpg</t>
   </si>
   <si>
     <t>Shorts</t>
   </si>
   <si>
-    <t>Shorts.jpg</t>
+    <t>ShortsA.jpg</t>
   </si>
   <si>
     <t>Short.jpg</t>
+  </si>
+  <si>
+    <t>ShortsN.jpg</t>
+  </si>
+  <si>
+    <t>Conjuntos</t>
+  </si>
+  <si>
+    <t>ConjuntosN.jpg</t>
+  </si>
+  <si>
+    <t>Camperas</t>
+  </si>
+  <si>
+    <t>CamperasA.jpg</t>
+  </si>
+  <si>
+    <t>CamperasN.jpg</t>
+  </si>
+  <si>
+    <t>Buzos</t>
+  </si>
+  <si>
+    <t>BuzosA.jpg</t>
+  </si>
+  <si>
+    <t>BuzosN.jpg</t>
+  </si>
+  <si>
+    <t>Medias</t>
+  </si>
+  <si>
+    <t>MediasA.jpg</t>
+  </si>
+  <si>
+    <t>MediasN.jpg</t>
+  </si>
+  <si>
+    <t>MediasJ.jpg</t>
+  </si>
+  <si>
+    <t>Chombas</t>
+  </si>
+  <si>
+    <t>ChombasA.jpg</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>Accesorios.jpg</t>
+  </si>
+  <si>
+    <t>ConjuntosB.jpg</t>
+  </si>
+  <si>
+    <t>Bolsos</t>
+  </si>
+  <si>
+    <t>Bolsos.jpg</t>
+  </si>
+  <si>
+    <t>Gorras</t>
+  </si>
+  <si>
+    <t>Gorras.jpg</t>
+  </si>
+  <si>
+    <t>Musculosas</t>
+  </si>
+  <si>
+    <t>MusculosaA.jpg</t>
+  </si>
+  <si>
+    <t>MusculosaN.jpg</t>
+  </si>
+  <si>
+    <t>Camisetas Termicas</t>
+  </si>
+  <si>
+    <t>Termicas.A.jpg</t>
+  </si>
+  <si>
+    <t>TermicasN.jpg</t>
+  </si>
+  <si>
+    <t>Calzas Termicas</t>
+  </si>
+  <si>
+    <t>CalzasA.jpg</t>
+  </si>
+  <si>
+    <t>CalzasN.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -101,12 +194,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,22 +214,43 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -375,54 +494,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+      <c r="G3" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -430,132 +549,485 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
+      <c r="F6" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
+      <c r="F7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>7.0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="6">
         <v>8.0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>

--- a/data/Categorias.xlsx
+++ b/data/Categorias.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,9 @@
     <t>IdTipo</t>
   </si>
   <si>
+    <t>FotoTalles</t>
+  </si>
+  <si>
     <t>Camisetas</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>TalleCamisetaAdulto.jpg</t>
+  </si>
+  <si>
     <t>CamisetasN.jpg</t>
   </si>
   <si>
@@ -153,7 +159,7 @@
     <t>Gorras.jpg</t>
   </si>
   <si>
-    <t>Musculosas</t>
+    <t>Musculosas de Basquet</t>
   </si>
   <si>
     <t>MusculosaA.jpg</t>
@@ -194,7 +200,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -205,6 +210,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,23 +240,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -472,7 +479,9 @@
     <col customWidth="1" min="1" max="1" width="2.25"/>
     <col customWidth="1" min="2" max="2" width="9.38"/>
     <col customWidth="1" min="3" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="26" width="9.38"/>
+    <col customWidth="1" min="5" max="7" width="9.38"/>
+    <col customWidth="1" min="8" max="8" width="18.5"/>
+    <col customWidth="1" min="9" max="26" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -497,50 +506,56 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
         <v>3.0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>1.0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
         <v>2.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -548,17 +563,17 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -568,22 +583,22 @@
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
         <v>7.0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -592,21 +607,21 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
         <v>6.0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -615,353 +630,353 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G10" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G16" s="2">
         <v>4.0</v>
       </c>
-      <c r="G8" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G10" s="6">
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="G17" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="2">
         <v>26.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2">
         <v>17.0</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>19.0</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
         <v>18.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>20.0</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
         <v>19.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="B22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
         <v>20.0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>22.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
         <v>21.0</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2">
         <v>22.0</v>
       </c>
       <c r="G24" s="2">
@@ -969,62 +984,62 @@
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>24.0</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
         <v>23.0</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>25.0</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>51</v>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
         <v>24.0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
         <v>26.0</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
         <v>25.0</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>2.0</v>
       </c>
     </row>
